--- a/data/case1/5/P_device_14.xlsx
+++ b/data/case1/5/P_device_14.xlsx
@@ -57,39 +57,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.059794641721686359</v>
+        <v>0.037301589504291001</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.059794642399502107</v>
+        <v>-0.037301591018868582</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.068227117303410897</v>
+        <v>0.040544987035190647</v>
       </c>
       <c r="B2" s="0">
-        <v>0.06822711662870333</v>
+        <v>-0.040544988547724002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.020237089792454872</v>
+        <v>-0.029367833257236461</v>
       </c>
       <c r="B3" s="0">
-        <v>0.020237089101279981</v>
+        <v>0.029367831674822539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.011921028934214064</v>
+        <v>0.023484824666503729</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.011921029655308807</v>
+        <v>-0.023484826180156855</v>
       </c>
     </row>
   </sheetData>
